--- a/data/trans_orig/iP30KDB1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDB1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7B4E808-7308-48D6-B32A-845D5285FA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B84812-ACB2-4BAC-BACB-36B6228D8660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F0206F2-E5DC-4B54-894D-84BF2343E70E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9B7DB0E3-729F-4BC6-94E9-212EA431F4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si desayunan cereales o derivados en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,346 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -819,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B800219B-BEFD-4603-B9E8-06FBEC8DC08C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE2F2E1-D10D-4BEF-8CB9-9049319A1522}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="D4" s="7">
-        <v>10894</v>
+        <v>104630</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="I4" s="7">
-        <v>15022</v>
+        <v>119550</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -964,73 +907,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="N4" s="7">
-        <v>25916</v>
+        <v>224180</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>503</v>
+        <v>9621</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>977</v>
+        <v>17265</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N5" s="7">
-        <v>1479</v>
+        <v>26886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1039,153 +982,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="D7" s="7">
-        <v>100273</v>
+        <v>179112</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="I7" s="7">
-        <v>93384</v>
+        <v>234919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>285</v>
+        <v>564</v>
       </c>
       <c r="N7" s="7">
-        <v>193657</v>
+        <v>414030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>12175</v>
+        <v>7002</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>8251</v>
+        <v>12601</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N8" s="7">
-        <v>20426</v>
+        <v>19604</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1194,153 +1137,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="D10" s="7">
-        <v>230767</v>
+        <v>172997</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="I10" s="7">
-        <v>180787</v>
+        <v>172360</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>564</v>
+        <v>407</v>
       </c>
       <c r="N10" s="7">
-        <v>411554</v>
+        <v>345358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>12146</v>
+        <v>15252</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>7130</v>
+        <v>10729</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N11" s="7">
-        <v>19276</v>
+        <v>25981</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1349,132 +1292,132 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D13" s="7">
-        <v>160812</v>
+        <v>150638</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="I13" s="7">
-        <v>151157</v>
+        <v>162480</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="N13" s="7">
-        <v>311970</v>
+        <v>313118</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>10307</v>
+        <v>13881</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>15411</v>
+        <v>14829</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>81</v>
@@ -1483,10 +1426,10 @@
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N14" s="7">
-        <v>25717</v>
+        <v>28710</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1504,153 +1447,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>212</v>
+        <v>844</v>
       </c>
       <c r="D16" s="7">
-        <v>157522</v>
+        <v>607377</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>879</v>
+      </c>
+      <c r="I16" s="7">
+        <v>689310</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>215</v>
-      </c>
-      <c r="I16" s="7">
-        <v>154453</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1723</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1296687</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="7">
-        <v>427</v>
-      </c>
-      <c r="N16" s="7">
-        <v>311976</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7">
-        <v>13934</v>
+        <v>45757</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>61</v>
+      </c>
+      <c r="I17" s="7">
+        <v>55423</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>20</v>
-      </c>
-      <c r="I17" s="7">
-        <v>14037</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>132</v>
+      </c>
+      <c r="N17" s="7">
+        <v>101180</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>40</v>
-      </c>
-      <c r="N17" s="7">
-        <v>27971</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,217 +1602,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>879</v>
-      </c>
-      <c r="D19" s="7">
-        <v>660268</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>844</v>
-      </c>
-      <c r="I19" s="7">
-        <v>594804</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1723</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1255073</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>61</v>
-      </c>
-      <c r="D20" s="7">
-        <v>49065</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>71</v>
-      </c>
-      <c r="I20" s="7">
-        <v>45805</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>132</v>
-      </c>
-      <c r="N20" s="7">
-        <v>94869</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>940</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
